--- a/Output_Folders/concept_system_output/Full_results_all_models.xlsx
+++ b/Output_Folders/concept_system_output/Full_results_all_models.xlsx
@@ -1,49 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10510"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MaylaB/Dropbox/Documents/0_Thesis_stuff-Larry_Sonia/Negacy_seq_2_seq_NER_model/ConceptRecognition/concept_system_output/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DED67122-2288-B349-8649-F55EEBE95A65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BE8458-48FD-924D-8BD5-4D6544488C02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14380" yWindow="460" windowWidth="14400" windowHeight="16580" activeTab="1" xr2:uid="{A11FB7C2-6A24-434A-8059-7C581917F3EC}"/>
+    <workbookView xWindow="14360" yWindow="460" windowWidth="14400" windowHeight="16580" xr2:uid="{A11FB7C2-6A24-434A-8059-7C581917F3EC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Best Results - SO FAR" sheetId="5" r:id="rId1"/>
-    <sheet name="Discontinuous spans" sheetId="19" r:id="rId2"/>
-    <sheet name="CHEBI" sheetId="9" r:id="rId3"/>
-    <sheet name="CL" sheetId="10" r:id="rId4"/>
-    <sheet name="GO_BP" sheetId="11" r:id="rId5"/>
-    <sheet name="GO_CC" sheetId="12" r:id="rId6"/>
-    <sheet name="GO_MF" sheetId="13" r:id="rId7"/>
-    <sheet name="MOP" sheetId="14" r:id="rId8"/>
-    <sheet name="NCBITaxon" sheetId="15" r:id="rId9"/>
-    <sheet name="PR" sheetId="16" r:id="rId10"/>
-    <sheet name="SO" sheetId="17" r:id="rId11"/>
-    <sheet name="UBERON" sheetId="18" r:id="rId12"/>
-    <sheet name="CRF" sheetId="1" r:id="rId13"/>
-    <sheet name="LSTM" sheetId="2" r:id="rId14"/>
-    <sheet name="LSTM-CRF" sheetId="3" r:id="rId15"/>
-    <sheet name="CHAR_EMBEDDING LSTM" sheetId="4" r:id="rId16"/>
-    <sheet name="LSTM-ELMO" sheetId="7" r:id="rId17"/>
-    <sheet name="BIOBERT" sheetId="8" r:id="rId18"/>
-    <sheet name="OGER" sheetId="6" r:id="rId19"/>
+    <sheet name="updated results 10-28-20" sheetId="20" r:id="rId1"/>
+    <sheet name="Best Results - SO FAR" sheetId="5" r:id="rId2"/>
+    <sheet name="Discontinuous spans" sheetId="19" r:id="rId3"/>
+    <sheet name="CHEBI" sheetId="9" r:id="rId4"/>
+    <sheet name="CL" sheetId="10" r:id="rId5"/>
+    <sheet name="GO_BP" sheetId="11" r:id="rId6"/>
+    <sheet name="GO_CC" sheetId="12" r:id="rId7"/>
+    <sheet name="GO_MF" sheetId="13" r:id="rId8"/>
+    <sheet name="MOP" sheetId="14" r:id="rId9"/>
+    <sheet name="NCBITaxon" sheetId="15" r:id="rId10"/>
+    <sheet name="PR" sheetId="16" r:id="rId11"/>
+    <sheet name="SO" sheetId="17" r:id="rId12"/>
+    <sheet name="UBERON" sheetId="18" r:id="rId13"/>
+    <sheet name="CRF" sheetId="1" r:id="rId14"/>
+    <sheet name="LSTM" sheetId="2" r:id="rId15"/>
+    <sheet name="LSTM-CRF" sheetId="3" r:id="rId16"/>
+    <sheet name="CHAR_EMBEDDING LSTM" sheetId="4" r:id="rId17"/>
+    <sheet name="LSTM-ELMO" sheetId="7" r:id="rId18"/>
+    <sheet name="BIOBERT" sheetId="8" r:id="rId19"/>
+    <sheet name="OGER" sheetId="6" r:id="rId20"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CHEBI!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CL!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">GO_BP!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">GO_CC!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GO_MF!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">MOP!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NCBITaxon!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">PR!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">SO!$A$1:$E$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">UBERON!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">CHEBI!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">CL!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">GO_BP!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">GO_CC!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">GO_MF!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">MOP!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">NCBITaxon!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">PR!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">SO!$A$1:$E$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">UBERON!$A$1:$E$8</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="42">
   <si>
     <t>ONTOLOGY</t>
   </si>
@@ -181,12 +182,21 @@
   <si>
     <t>none in development</t>
   </si>
+  <si>
+    <t>LSTM_CRF</t>
+  </si>
+  <si>
+    <t>CHAR_EMBEDDINGS</t>
+  </si>
+  <si>
+    <t>LSTM_ELMO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -196,6 +206,14 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -264,6 +282,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,6 +596,2210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A882873-B5B9-F54E-B6EA-231F4813BDC9}">
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2">
+        <v>0.78820000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.50270000000000004</v>
+      </c>
+      <c r="E2">
+        <v>0.59419999999999995</v>
+      </c>
+      <c r="F2">
+        <v>5.5E-2</v>
+      </c>
+      <c r="G2">
+        <v>0.78849999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.67789999999999995</v>
+      </c>
+      <c r="C3">
+        <v>0.51339999999999997</v>
+      </c>
+      <c r="D3">
+        <v>0.38590000000000002</v>
+      </c>
+      <c r="E3">
+        <v>0.56110000000000004</v>
+      </c>
+      <c r="F3">
+        <v>5.2600000000000001E-2</v>
+      </c>
+      <c r="G3">
+        <v>0.69940000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.75049999999999994</v>
+      </c>
+      <c r="C4">
+        <v>0.51370000000000005</v>
+      </c>
+      <c r="D4">
+        <v>0.36420000000000002</v>
+      </c>
+      <c r="E4">
+        <v>0.61819999999999997</v>
+      </c>
+      <c r="F4">
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="G4">
+        <v>0.74050000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.72250000000000003</v>
+      </c>
+      <c r="C5">
+        <v>0.16889999999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.3049</v>
+      </c>
+      <c r="E5">
+        <v>0.32440000000000002</v>
+      </c>
+      <c r="F5">
+        <v>5.0599999999999999E-2</v>
+      </c>
+      <c r="G5">
+        <v>0.7762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.9778</v>
+      </c>
+      <c r="C6">
+        <v>0.97699999999999998</v>
+      </c>
+      <c r="D6">
+        <v>0.9778</v>
+      </c>
+      <c r="E6">
+        <v>0.89059999999999995</v>
+      </c>
+      <c r="F6">
+        <v>0.37040000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7">
+        <v>0.81289999999999996</v>
+      </c>
+      <c r="C7">
+        <v>0.77210000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.71579999999999999</v>
+      </c>
+      <c r="E7">
+        <v>0.59850000000000003</v>
+      </c>
+      <c r="F7">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="G7">
+        <v>0.87419999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="C8">
+        <v>0.77359999999999995</v>
+      </c>
+      <c r="D8">
+        <v>0.83909999999999996</v>
+      </c>
+      <c r="E8">
+        <v>0.8518</v>
+      </c>
+      <c r="F8">
+        <v>9.4799999999999995E-2</v>
+      </c>
+      <c r="G8">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.31359999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.28270000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.2732</v>
+      </c>
+      <c r="F9">
+        <v>5.16E-2</v>
+      </c>
+      <c r="G9">
+        <v>0.52949999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.89870000000000005</v>
+      </c>
+      <c r="C10">
+        <v>0.41060000000000002</v>
+      </c>
+      <c r="D10">
+        <v>0.40960000000000002</v>
+      </c>
+      <c r="E10">
+        <v>0.78149999999999997</v>
+      </c>
+      <c r="F10">
+        <v>8.1299999999999997E-2</v>
+      </c>
+      <c r="G10">
+        <v>0.90539999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11">
+        <v>0.74739999999999995</v>
+      </c>
+      <c r="C11">
+        <v>0.68120000000000003</v>
+      </c>
+      <c r="D11">
+        <v>0.50290000000000001</v>
+      </c>
+      <c r="E11">
+        <v>0.69010000000000005</v>
+      </c>
+      <c r="F11">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="G11">
+        <v>0.76700000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A89592-5FFC-BF47-85CA-8131A731E917}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8">
+        <f>OGER!B$8</f>
+        <v>0.96940000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="1">
+        <f>CRF!B$8</f>
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="C3" s="1">
+        <f>CRF!C$8</f>
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="D3" s="1">
+        <f>CRF!D$8</f>
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="E3" s="1">
+        <f>CRF!E$8</f>
+        <v>0.90259999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="1">
+        <f>BIOBERT!B$8</f>
+        <v>0.128</v>
+      </c>
+      <c r="C4" s="1">
+        <f>BIOBERT!C$8</f>
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="D4" s="1">
+        <f>BIOBERT!D$8</f>
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="E4" s="1">
+        <f>BIOBERT!E$8</f>
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!B$8</f>
+        <v>0.2281</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!C$8</f>
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!D$8</f>
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="E5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!E$8</f>
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'LSTM-CRF'!B$8</f>
+        <v>0.2452</v>
+      </c>
+      <c r="C6" s="1">
+        <f>'LSTM-CRF'!C$8</f>
+        <v>0.8135</v>
+      </c>
+      <c r="D6" s="1">
+        <f>'LSTM-CRF'!D$8</f>
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'LSTM-CRF'!E$8</f>
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1">
+        <f>LSTM!B$8</f>
+        <v>0.4178</v>
+      </c>
+      <c r="C7" s="1">
+        <f>LSTM!C$8</f>
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="D7" s="1">
+        <f>LSTM!D$8</f>
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <f>LSTM!E$8</f>
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'LSTM-ELMO'!B$8</f>
+        <v>1.4004000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'LSTM-ELMO'!C$8</f>
+        <v>0.1328</v>
+      </c>
+      <c r="D8" s="1">
+        <f>'LSTM-ELMO'!D$8</f>
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'LSTM-ELMO'!E$8</f>
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E8" xr:uid="{563C96C5-AA5E-CF47-BBFA-B0EE84DEB98F}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+      <sortCondition descending="1" ref="E1:E8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95C83F-D092-0640-B08C-61E5B7ADCAF8}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:E3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="8">
+        <f>OGER!B$9</f>
+        <v>0.80259999999999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="1">
+        <f>BIOBERT!B$9</f>
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="C3" s="1">
+        <f>BIOBERT!C$9</f>
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="D3" s="1">
+        <f>BIOBERT!D$9</f>
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="E3" s="1">
+        <f>BIOBERT!E$9</f>
+        <v>0.52929999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <f>CRF!B$9</f>
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="C4" s="1">
+        <f>CRF!C$9</f>
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <f>CRF!D$9</f>
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="E4" s="1">
+        <f>CRF!E$9</f>
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="1">
+        <f>LSTM!B$9</f>
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="C5" s="1">
+        <f>LSTM!C$9</f>
+        <v>0.4098</v>
+      </c>
+      <c r="D5" s="1">
+        <f>LSTM!D$9</f>
+        <v>0.2535</v>
+      </c>
+      <c r="E5" s="1">
+        <f>LSTM!E$9</f>
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="1">
+        <f>'LSTM-CRF'!B$9</f>
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="C6" s="1">
+        <f>'LSTM-CRF'!C$9</f>
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="D6" s="1">
+        <f>'LSTM-CRF'!D$9</f>
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="E6" s="1">
+        <f>'LSTM-CRF'!E$9</f>
+        <v>0.28260000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!B$9</f>
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!C$9</f>
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!D$9</f>
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!E$9</f>
+        <v>0.27229999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'LSTM-ELMO'!B$9</f>
+        <v>1.6045</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'LSTM-ELMO'!C$9</f>
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f>'LSTM-ELMO'!D$9</f>
+        <v>4.48E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'LSTM-ELMO'!E$9</f>
+        <v>5.16E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E8" xr:uid="{4203B186-749D-F746-8ADB-4D2D769585F7}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+      <sortCondition descending="1" ref="E1:E8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8109C2D-4BA9-EA48-88CC-B36539869B65}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <f>BIOBERT!B$10</f>
+        <v>0.1421</v>
+      </c>
+      <c r="C2" s="2">
+        <f>BIOBERT!C$10</f>
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D2" s="2">
+        <f>BIOBERT!D$10</f>
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="E2" s="2">
+        <f>BIOBERT!E$10</f>
+        <v>0.90380000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8">
+        <f>OGER!B$10</f>
+        <v>0.90269999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <f>CRF!B$10</f>
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <f>CRF!C$10</f>
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="D4" s="1">
+        <f>CRF!D$10</f>
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="E4" s="1">
+        <f>CRF!E$10</f>
+        <v>0.89859999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!B$10</f>
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!C$10</f>
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="D5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!D$10</f>
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!E$10</f>
+        <v>0.78039999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f>LSTM!B$10</f>
+        <v>2.3273999999999999</v>
+      </c>
+      <c r="C6" s="1">
+        <f>LSTM!C$10</f>
+        <v>0.2697</v>
+      </c>
+      <c r="D6" s="1">
+        <f>LSTM!D$10</f>
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E6" s="1">
+        <f>LSTM!E$10</f>
+        <v>0.40749999999999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'LSTM-CRF'!B$10</f>
+        <v>2.2235</v>
+      </c>
+      <c r="C7" s="1">
+        <f>'LSTM-CRF'!C$10</f>
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'LSTM-CRF'!D$10</f>
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'LSTM-CRF'!E$10</f>
+        <v>0.40510000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'LSTM-ELMO'!B$10</f>
+        <v>1.6006</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'LSTM-ELMO'!C$10</f>
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f>'LSTM-ELMO'!D$10</f>
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'LSTM-ELMO'!E$10</f>
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E8" xr:uid="{B9DB64DB-A611-9F41-BB26-EF2066453864}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+      <sortCondition descending="1" ref="E1:E8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA28A23-0A6E-3442-AE03-4EEFF6E90EE5}">
+  <dimension ref="A1:E8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2">
+        <f>BIOBERT!B$11</f>
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="C2" s="2">
+        <f>BIOBERT!C$11</f>
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="D2" s="2">
+        <f>BIOBERT!D$11</f>
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="E2" s="2">
+        <f>BIOBERT!E$11</f>
+        <v>0.76480000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="8">
+        <f>OGER!B$11</f>
+        <v>0.74880000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1">
+        <f>CRF!B$11</f>
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <f>CRF!C$11</f>
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <f>CRF!D$11</f>
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E4" s="1">
+        <f>CRF!E$11</f>
+        <v>0.74680000000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!B$11</f>
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!C$11</f>
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="D5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!D$11</f>
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="E5" s="1">
+        <f>'CHAR_EMBEDDING LSTM'!E$11</f>
+        <v>0.68789999999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1">
+        <f>LSTM!B$11</f>
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="C6" s="1">
+        <f>LSTM!C$11</f>
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="D6" s="1">
+        <f>LSTM!D$11</f>
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E6" s="1">
+        <f>LSTM!E$11</f>
+        <v>0.67830000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1">
+        <f>'LSTM-CRF'!B$11</f>
+        <v>1.1536</v>
+      </c>
+      <c r="C7" s="1">
+        <f>'LSTM-CRF'!C$11</f>
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <f>'LSTM-CRF'!D$11</f>
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="E7" s="1">
+        <f>'LSTM-CRF'!E$11</f>
+        <v>0.50039999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1">
+        <f>'LSTM-ELMO'!B$11</f>
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <f>'LSTM-ELMO'!C$11</f>
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f>'LSTM-ELMO'!D$11</f>
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f>'LSTM-ELMO'!E$11</f>
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E8" xr:uid="{3E648B44-C3FF-CF47-A6F4-CE837E42B198}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
+      <sortCondition descending="1" ref="E1:E8"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBD22BE-0061-D149-BD9B-43F0D337174F}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:E4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.33069999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.93369999999999997</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.78820000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0.48420000000000002</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.55530000000000002</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.67490000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.36109999999999998</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.82920000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.68210000000000004</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.74850000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.42970000000000003</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.82050000000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.64380000000000004</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.72150000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.33400000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.75600000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.81289999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.12239999999999999</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.92379999999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.88239999999999996</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.90259999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.75870000000000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.56840000000000002</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.31330000000000002</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.40400000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.93230000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.89859999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.36180000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.85640000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.66200000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.74680000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC048289-4AEB-6649-B213-17B0CBCAAA1D}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.67269999999999996</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.62290000000000001</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.6532</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.63770000000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.8468</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.52270000000000005</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.49459999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.50819999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.0619000000000001</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.42159999999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.64059999999999995</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.50849999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>5.94</v>
+      </c>
+      <c r="C5" s="3">
+        <v>9.7100000000000006E-2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.61829999999999996</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.1678</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95509999999999995</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.41460000000000002</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.81459999999999999</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.7339</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.77210000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>0.4178</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.69779999999999998</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.86890000000000001</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0.77400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.95630000000000004</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.4098</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.2535</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.31330000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.3273999999999999</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.2697</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.40749999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.50229999999999997</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.68269999999999997</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.67830000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03264D92-EE09-B242-A352-B8E655B36B5E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.2263999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.66269999999999996</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.50070000000000003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1.4722</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0.31209999999999999</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.4975</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.3836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1.8654999999999999</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.25929999999999997</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.6048</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.36299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.7747999999999999</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.1996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.64159999999999995</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.30449999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.3499999999999997E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.9778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5877</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.67459999999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.76229999999999998</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.71579999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.2452</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.8135</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.87090000000000001</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.84119999999999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.95440000000000003</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.42349999999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.28260000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>2.2235</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0.27139999999999997</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.79859999999999998</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.40510000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.1536</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.39729999999999999</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.67589999999999995</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.50039999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B909ED-91EF-AC45-8515-C5B0E377DF1E}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.57210000000000005</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.61809999999999998</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.59419999999999995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.66679999999999995</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.67749999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.47839999999999999</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.56079999999999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.65780000000000005</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.59630000000000005</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.63939999999999997</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.61709999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2.8195000000000001</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.20899999999999999</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.70589999999999997</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.3226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.19719999999999999</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.80279999999999996</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.89059999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>0.56669999999999998</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.96740000000000004</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.43330000000000002</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0.59850000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.2281</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.82310000000000005</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.85119999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.52610000000000001</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.18360000000000001</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.27229999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.44650000000000001</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.70650000000000002</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.87160000000000004</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.78039999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.46839999999999998</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.72330000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.65580000000000005</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.68789999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ABD706-3641-A64B-97F3-2073EB88F734}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1.5550999999999999</v>
+      </c>
+      <c r="C2" s="1">
+        <v>6.8900000000000003E-2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4.5699999999999998E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <v>5.4899999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1.5972</v>
+      </c>
+      <c r="C3" s="1">
+        <v>6.3100000000000003E-2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>4.5499999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <v>5.2900000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.417</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.9199999999999997E-2</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.4300000000000001E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7.0199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.5399</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6.5299999999999997E-2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4.1300000000000003E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>5.0599999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.77270000000000005</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.2273</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.37040000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.1621999999999999</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.5199999999999994E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.16220000000000001</v>
+      </c>
+      <c r="E7" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.4004000000000001</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.1328</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7.3700000000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9.4799999999999995E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.6045</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.0900000000000003E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>4.48E-2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.16E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.6006</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.4299999999999995E-2</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7.1400000000000005E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8.1299999999999997E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1.6060000000000001</v>
+      </c>
+      <c r="C11" s="1">
+        <v>8.9899999999999994E-2</v>
+      </c>
+      <c r="D11" s="1">
+        <v>7.0499999999999993E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7.9000000000000001E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02C32E2-8B4A-0B49-9B00-D874283FDC73}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>0.3009</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.79979999999999996</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.7772</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0.78839999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0.43680000000000002</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.70069999999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>0.68669999999999998</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0.69359999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="1">
+        <v>0.38080000000000003</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.72519999999999996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0.74199999999999999</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.73350000000000004</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.3473</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.78159999999999996</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.76839999999999997</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.77500000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4.2599999999999999E-2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.95740000000000003</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.97829999999999995</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.2477</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.83089999999999997</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.92230000000000001</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.87419999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.128</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.89659999999999995</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.88560000000000005</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.89100000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0.62549999999999994</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.50529999999999997</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.55569999999999997</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.52929999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.1421</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.90380000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.30730000000000002</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.78720000000000001</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.74370000000000003</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0.76480000000000004</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EDEF1579-F43D-B24D-9E1F-9AC07B95705A}">
   <dimension ref="A1:M11"/>
   <sheetViews>
@@ -918,1762 +3141,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE95C83F-D092-0640-B08C-61E5B7ADCAF8}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:E3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="8">
-        <f>OGER!B$9</f>
-        <v>0.80259999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B3" s="1">
-        <f>BIOBERT!B$9</f>
-        <v>0.62549999999999994</v>
-      </c>
-      <c r="C3" s="1">
-        <f>BIOBERT!C$9</f>
-        <v>0.50529999999999997</v>
-      </c>
-      <c r="D3" s="1">
-        <f>BIOBERT!D$9</f>
-        <v>0.55569999999999997</v>
-      </c>
-      <c r="E3" s="1">
-        <f>BIOBERT!E$9</f>
-        <v>0.52929999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <f>CRF!B$9</f>
-        <v>0.75870000000000004</v>
-      </c>
-      <c r="C4" s="1">
-        <f>CRF!C$9</f>
-        <v>0.56840000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <f>CRF!D$9</f>
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="E4" s="1">
-        <f>CRF!E$9</f>
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="1">
-        <f>LSTM!B$9</f>
-        <v>0.95630000000000004</v>
-      </c>
-      <c r="C5" s="1">
-        <f>LSTM!C$9</f>
-        <v>0.4098</v>
-      </c>
-      <c r="D5" s="1">
-        <f>LSTM!D$9</f>
-        <v>0.2535</v>
-      </c>
-      <c r="E5" s="1">
-        <f>LSTM!E$9</f>
-        <v>0.31330000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <f>'LSTM-CRF'!B$9</f>
-        <v>0.95440000000000003</v>
-      </c>
-      <c r="C6" s="1">
-        <f>'LSTM-CRF'!C$9</f>
-        <v>0.42349999999999999</v>
-      </c>
-      <c r="D6" s="1">
-        <f>'LSTM-CRF'!D$9</f>
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <f>'LSTM-CRF'!E$9</f>
-        <v>0.28260000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!B$9</f>
-        <v>0.88019999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!C$9</f>
-        <v>0.52610000000000001</v>
-      </c>
-      <c r="D7" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!D$9</f>
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!E$9</f>
-        <v>0.27229999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <f>'LSTM-ELMO'!B$9</f>
-        <v>1.6045</v>
-      </c>
-      <c r="C8" s="1">
-        <f>'LSTM-ELMO'!C$9</f>
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f>'LSTM-ELMO'!D$9</f>
-        <v>4.48E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>'LSTM-ELMO'!E$9</f>
-        <v>5.16E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{4203B186-749D-F746-8ADB-4D2D769585F7}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
-      <sortCondition descending="1" ref="E1:E8"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8109C2D-4BA9-EA48-88CC-B36539869B65}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2">
-        <f>BIOBERT!B$10</f>
-        <v>0.1421</v>
-      </c>
-      <c r="C2" s="2">
-        <f>BIOBERT!C$10</f>
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="D2" s="2">
-        <f>BIOBERT!D$10</f>
-        <v>0.89470000000000005</v>
-      </c>
-      <c r="E2" s="2">
-        <f>BIOBERT!E$10</f>
-        <v>0.90380000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8">
-        <f>OGER!B$10</f>
-        <v>0.90269999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <f>CRF!B$10</f>
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <f>CRF!C$10</f>
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="D4" s="1">
-        <f>CRF!D$10</f>
-        <v>0.86709999999999998</v>
-      </c>
-      <c r="E4" s="1">
-        <f>CRF!E$10</f>
-        <v>0.89859999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!B$10</f>
-        <v>0.44650000000000001</v>
-      </c>
-      <c r="C5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!C$10</f>
-        <v>0.70650000000000002</v>
-      </c>
-      <c r="D5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!D$10</f>
-        <v>0.87160000000000004</v>
-      </c>
-      <c r="E5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!E$10</f>
-        <v>0.78039999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <f>LSTM!B$10</f>
-        <v>2.3273999999999999</v>
-      </c>
-      <c r="C6" s="1">
-        <f>LSTM!C$10</f>
-        <v>0.2697</v>
-      </c>
-      <c r="D6" s="1">
-        <f>LSTM!D$10</f>
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E6" s="1">
-        <f>LSTM!E$10</f>
-        <v>0.40749999999999997</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <f>'LSTM-CRF'!B$10</f>
-        <v>2.2235</v>
-      </c>
-      <c r="C7" s="1">
-        <f>'LSTM-CRF'!C$10</f>
-        <v>0.27139999999999997</v>
-      </c>
-      <c r="D7" s="1">
-        <f>'LSTM-CRF'!D$10</f>
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <f>'LSTM-CRF'!E$10</f>
-        <v>0.40510000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <f>'LSTM-ELMO'!B$10</f>
-        <v>1.6006</v>
-      </c>
-      <c r="C8" s="1">
-        <f>'LSTM-ELMO'!C$10</f>
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f>'LSTM-ELMO'!D$10</f>
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>'LSTM-ELMO'!E$10</f>
-        <v>8.1299999999999997E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{B9DB64DB-A611-9F41-BB26-EF2066453864}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
-      <sortCondition descending="1" ref="E1:E8"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDA28A23-0A6E-3442-AE03-4EEFF6E90EE5}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2">
-        <f>BIOBERT!B$11</f>
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="C2" s="2">
-        <f>BIOBERT!C$11</f>
-        <v>0.78720000000000001</v>
-      </c>
-      <c r="D2" s="2">
-        <f>BIOBERT!D$11</f>
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="E2" s="2">
-        <f>BIOBERT!E$11</f>
-        <v>0.76480000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="8">
-        <f>OGER!B$11</f>
-        <v>0.74880000000000002</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="1">
-        <f>CRF!B$11</f>
-        <v>0.36180000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <f>CRF!C$11</f>
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="D4" s="1">
-        <f>CRF!D$11</f>
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E4" s="1">
-        <f>CRF!E$11</f>
-        <v>0.74680000000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!B$11</f>
-        <v>0.46839999999999998</v>
-      </c>
-      <c r="C5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!C$11</f>
-        <v>0.72330000000000005</v>
-      </c>
-      <c r="D5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!D$11</f>
-        <v>0.65580000000000005</v>
-      </c>
-      <c r="E5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!E$11</f>
-        <v>0.68789999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="1">
-        <f>LSTM!B$11</f>
-        <v>0.50229999999999997</v>
-      </c>
-      <c r="C6" s="1">
-        <f>LSTM!C$11</f>
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="D6" s="1">
-        <f>LSTM!D$11</f>
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E6" s="1">
-        <f>LSTM!E$11</f>
-        <v>0.67830000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="1">
-        <f>'LSTM-CRF'!B$11</f>
-        <v>1.1536</v>
-      </c>
-      <c r="C7" s="1">
-        <f>'LSTM-CRF'!C$11</f>
-        <v>0.39729999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <f>'LSTM-CRF'!D$11</f>
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="E7" s="1">
-        <f>'LSTM-CRF'!E$11</f>
-        <v>0.50039999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <f>'LSTM-ELMO'!B$11</f>
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <f>'LSTM-ELMO'!C$11</f>
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="D8" s="1">
-        <f>'LSTM-ELMO'!D$11</f>
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>'LSTM-ELMO'!E$11</f>
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{3E648B44-C3FF-CF47-A6F4-CE837E42B198}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
-      <sortCondition descending="1" ref="E1:E8"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DBD22BE-0061-D149-BD9B-43F0D337174F}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.33069999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.93369999999999997</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.78820000000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0.48420000000000002</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.86019999999999996</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.55530000000000002</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.67490000000000006</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.36109999999999998</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.82920000000000005</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.68210000000000004</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.74850000000000005</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.42970000000000003</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.82050000000000001</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.64380000000000004</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.72150000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.9778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.81289999999999996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.92379999999999995</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.88239999999999996</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.90259999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.75870000000000004</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.56840000000000002</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.31330000000000002</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.40400000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.93230000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.86709999999999998</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.89859999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.36180000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.85640000000000005</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.66200000000000003</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.74680000000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC048289-4AEB-6649-B213-17B0CBCAAA1D}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.67269999999999996</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.62290000000000001</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.6532</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.63770000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.8468</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.52270000000000005</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.50819999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.0619000000000001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.42159999999999997</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.64059999999999995</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.50849999999999995</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>5.94</v>
-      </c>
-      <c r="C5" s="3">
-        <v>9.7100000000000006E-2</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.61829999999999996</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.1678</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.4900000000000002E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.95509999999999995</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.97699999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.41460000000000002</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.81459999999999999</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.7339</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.77210000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>0.4178</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="D8" s="1">
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.95630000000000004</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.4098</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.2535</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.31330000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2.3273999999999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.2697</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.40749999999999997</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.50229999999999997</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.68269999999999997</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.67400000000000004</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.67830000000000001</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03264D92-EE09-B242-A352-B8E655B36B5E}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.2263999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.40239999999999998</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.66269999999999996</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.50070000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1.4722</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.31209999999999999</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.4975</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.3836</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3">
-        <v>1.8654999999999999</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0.25929999999999997</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.6048</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.36299999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2.7747999999999999</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.1996</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.64159999999999995</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.30449999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.3499999999999997E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.95650000000000002</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.9778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.5877</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.67459999999999998</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.76229999999999998</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.71579999999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.2452</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.8135</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.87090000000000001</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.84119999999999995</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.95440000000000003</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.42349999999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.21210000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.28260000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3">
-        <v>2.2235</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.27139999999999997</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.79859999999999998</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.40510000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.1536</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.39729999999999999</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.67589999999999995</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.50039999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8B909ED-91EF-AC45-8515-C5B0E377DF1E}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.76190000000000002</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.57210000000000005</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.61809999999999998</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.59419999999999995</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.66679999999999995</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.67749999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.47839999999999999</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.56079999999999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.65780000000000005</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.59630000000000005</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.63939999999999997</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.61709999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3">
-        <v>2.8195000000000001</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.20899999999999999</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.70589999999999997</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.3226</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.19719999999999999</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.80279999999999996</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.89059999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0.56669999999999998</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0.96740000000000004</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.43330000000000002</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0.59850000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.2281</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.88119999999999998</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.85119999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.88019999999999998</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.52610000000000001</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.18360000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.27229999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.44650000000000001</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.70650000000000002</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.87160000000000004</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.78039999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.46839999999999998</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.72330000000000005</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.65580000000000005</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.68789999999999996</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6ABD706-3641-A64B-97F3-2073EB88F734}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1.5550999999999999</v>
-      </c>
-      <c r="C2" s="1">
-        <v>6.8900000000000003E-2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>4.5699999999999998E-2</v>
-      </c>
-      <c r="E2" s="1">
-        <v>5.4899999999999997E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1.5972</v>
-      </c>
-      <c r="C3" s="1">
-        <v>6.3100000000000003E-2</v>
-      </c>
-      <c r="D3" s="1">
-        <v>4.5499999999999999E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>5.2900000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1.417</v>
-      </c>
-      <c r="C4" s="1">
-        <v>9.9199999999999997E-2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.4300000000000001E-2</v>
-      </c>
-      <c r="E4" s="1">
-        <v>7.0199999999999999E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>1.5399</v>
-      </c>
-      <c r="C5" s="1">
-        <v>6.5299999999999997E-2</v>
-      </c>
-      <c r="D5" s="1">
-        <v>4.1300000000000003E-2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>5.0599999999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1">
-        <v>0.77270000000000005</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>0.2273</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.37040000000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="1">
-        <v>3.1621999999999999</v>
-      </c>
-      <c r="C7" s="1">
-        <v>6.5199999999999994E-2</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.16220000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <v>9.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.4004000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0.1328</v>
-      </c>
-      <c r="D8" s="1">
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <v>9.4799999999999995E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.6045</v>
-      </c>
-      <c r="C9" s="1">
-        <v>6.0900000000000003E-2</v>
-      </c>
-      <c r="D9" s="1">
-        <v>4.48E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>5.16E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.6006</v>
-      </c>
-      <c r="C10" s="1">
-        <v>9.4299999999999995E-2</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7.1400000000000005E-2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.1299999999999997E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>1.6060000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>8.9899999999999994E-2</v>
-      </c>
-      <c r="D11" s="1">
-        <v>7.0499999999999993E-2</v>
-      </c>
-      <c r="E11" s="1">
-        <v>7.9000000000000001E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02C32E2-8B4A-0B49-9B00-D874283FDC73}">
-  <dimension ref="A1:E11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="1">
-        <v>0.3009</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0.79979999999999996</v>
-      </c>
-      <c r="D2" s="1">
-        <v>0.7772</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0.78839999999999999</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="1">
-        <v>0.43680000000000002</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0.70069999999999999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>0.68669999999999998</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.69359999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>0.38080000000000003</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0.72519999999999996</v>
-      </c>
-      <c r="D4" s="1">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0.73350000000000004</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1">
-        <v>0.3473</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0.78159999999999996</v>
-      </c>
-      <c r="D5" s="1">
-        <v>0.76839999999999997</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.77500000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2">
-        <v>4.2599999999999999E-2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.95740000000000003</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.97829999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.2477</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.83089999999999997</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.92230000000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.87419999999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.128</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.89659999999999995</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.88560000000000005</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0.62549999999999994</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.50529999999999997</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.55569999999999997</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.52929999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.1421</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.89470000000000005</v>
-      </c>
-      <c r="E10" s="2">
-        <v>0.90380000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0.30730000000000002</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0.78720000000000001</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0.74370000000000003</v>
-      </c>
-      <c r="E11" s="1">
-        <v>0.76480000000000004</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73FA76E5-009A-2646-A388-B08C38139CF7}">
   <dimension ref="A1:B11"/>
   <sheetViews>
@@ -2779,11 +3247,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EAE49BB-0900-7646-902C-56BEF375DE53}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -3065,12 +3533,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA9396-3A02-6F42-A11C-CA43A954929A}">
   <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A8"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3249,7 +3717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EB0735-9B05-C64B-8EB9-9728F5E9B082}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3433,7 +3901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03913A76-6295-E14A-8923-04A39550C8F0}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3614,7 +4082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61D3962-240C-2A46-B335-8F611C7BC358}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -3798,7 +4266,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CBAEB33-7ED7-C84D-88F7-BF427E5EF640}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -3979,7 +4447,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AB7D1C-EAD7-594B-847D-E7AE6EB73DF3}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -4158,185 +4626,4 @@
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98A89592-5FFC-BF47-85CA-8131A731E917}">
-  <dimension ref="A1:E8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E2" s="8">
-        <f>OGER!B$8</f>
-        <v>0.96940000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B3" s="1">
-        <f>CRF!B$8</f>
-        <v>0.12239999999999999</v>
-      </c>
-      <c r="C3" s="1">
-        <f>CRF!C$8</f>
-        <v>0.92379999999999995</v>
-      </c>
-      <c r="D3" s="1">
-        <f>CRF!D$8</f>
-        <v>0.88239999999999996</v>
-      </c>
-      <c r="E3" s="1">
-        <f>CRF!E$8</f>
-        <v>0.90259999999999996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="1">
-        <f>BIOBERT!B$8</f>
-        <v>0.128</v>
-      </c>
-      <c r="C4" s="1">
-        <f>BIOBERT!C$8</f>
-        <v>0.89659999999999995</v>
-      </c>
-      <c r="D4" s="1">
-        <f>BIOBERT!D$8</f>
-        <v>0.88560000000000005</v>
-      </c>
-      <c r="E4" s="1">
-        <f>BIOBERT!E$8</f>
-        <v>0.89100000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!B$8</f>
-        <v>0.2281</v>
-      </c>
-      <c r="C5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!C$8</f>
-        <v>0.82310000000000005</v>
-      </c>
-      <c r="D5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!D$8</f>
-        <v>0.88119999999999998</v>
-      </c>
-      <c r="E5" s="1">
-        <f>'CHAR_EMBEDDING LSTM'!E$8</f>
-        <v>0.85119999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="1">
-        <f>'LSTM-CRF'!B$8</f>
-        <v>0.2452</v>
-      </c>
-      <c r="C6" s="1">
-        <f>'LSTM-CRF'!C$8</f>
-        <v>0.8135</v>
-      </c>
-      <c r="D6" s="1">
-        <f>'LSTM-CRF'!D$8</f>
-        <v>0.87090000000000001</v>
-      </c>
-      <c r="E6" s="1">
-        <f>'LSTM-CRF'!E$8</f>
-        <v>0.84119999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="1">
-        <f>LSTM!B$8</f>
-        <v>0.4178</v>
-      </c>
-      <c r="C7" s="1">
-        <f>LSTM!C$8</f>
-        <v>0.69779999999999998</v>
-      </c>
-      <c r="D7" s="1">
-        <f>LSTM!D$8</f>
-        <v>0.86890000000000001</v>
-      </c>
-      <c r="E7" s="1">
-        <f>LSTM!E$8</f>
-        <v>0.77400000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="1">
-        <f>'LSTM-ELMO'!B$8</f>
-        <v>1.4004000000000001</v>
-      </c>
-      <c r="C8" s="1">
-        <f>'LSTM-ELMO'!C$8</f>
-        <v>0.1328</v>
-      </c>
-      <c r="D8" s="1">
-        <f>'LSTM-ELMO'!D$8</f>
-        <v>7.3700000000000002E-2</v>
-      </c>
-      <c r="E8" s="1">
-        <f>'LSTM-ELMO'!E$8</f>
-        <v>9.4799999999999995E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:E8" xr:uid="{563C96C5-AA5E-CF47-BBFA-B0EE84DEB98F}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E8">
-      <sortCondition descending="1" ref="E1:E8"/>
-    </sortState>
-  </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>